--- a/ZGA_datasets.xlsx
+++ b/ZGA_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Desktop/Rise_and_SINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502155BA-3A5F-2245-82E9-4EF6E22BC7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C47684-F7BC-E745-B8A8-224A7A99E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{06094D96-EA32-3C44-A5E3-5F118A5E0F5F}"/>
   </bookViews>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
   <si>
     <t>1st author</t>
   </si>
   <si>
-    <t xml:space="preserve">mice </t>
-  </si>
-  <si>
     <t>GSE215813</t>
   </si>
   <si>
@@ -514,10 +511,16 @@
     <t>Cell type</t>
   </si>
   <si>
-    <t>Gassler et al. B6CASTF1</t>
-  </si>
-  <si>
-    <t>Gassler et al. C57BL/6J</t>
+    <t>B6CASTF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gassler et al. </t>
+  </si>
+  <si>
+    <t>C57BL/6J</t>
+  </si>
+  <si>
+    <t>Mouse strain</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -689,11 +692,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,25 +718,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,27 +743,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1063,7 +1071,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,39 +1091,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>26</v>
@@ -1124,24 +1132,24 @@
         <v>46</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="E3" s="7">
         <v>20</v>
@@ -1150,937 +1158,1102 @@
         <v>46</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>154</v>
+        <v>119</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="5">
         <v>43</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="D16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="B57" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="B58" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="B59" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="B60" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="E61" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="B62" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="B63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="B64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="B65" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="B66" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2120,17 +2293,17 @@
     <hyperlink ref="C53" r:id="rId33" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR8106018" xr:uid="{0FA3597A-0C9E-A64B-8B4F-11B553D21970}"/>
     <hyperlink ref="C54" r:id="rId34" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR8106019" xr:uid="{14D4DBDD-E4BA-1F40-848F-AA1351CC775B}"/>
     <hyperlink ref="C55" r:id="rId35" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR8106020" xr:uid="{7A3C5097-EC99-1D40-806A-21B916AB9152}"/>
-    <hyperlink ref="C56" r:id="rId36" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875243" xr:uid="{5AD961BF-F1C2-364D-9AF8-0BB68D15CAE8}"/>
-    <hyperlink ref="C57" r:id="rId37" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875244" xr:uid="{BFFADB3C-42D3-5749-BAF4-59204E98202F}"/>
-    <hyperlink ref="C58" r:id="rId38" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875245" xr:uid="{7DC345BB-EAD0-674D-AE93-AE773AB1AAB5}"/>
-    <hyperlink ref="C59" r:id="rId39" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875246" xr:uid="{5ACEDC3C-51A5-9542-B367-81A8B78AD4DB}"/>
-    <hyperlink ref="C60" r:id="rId40" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875247" xr:uid="{DA83392A-8764-F04A-903A-3843597C8D6F}"/>
-    <hyperlink ref="C61" r:id="rId41" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875234" xr:uid="{42583986-114A-B849-A09B-765CD164ECD5}"/>
-    <hyperlink ref="C62" r:id="rId42" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875235" xr:uid="{B8F458FC-06F3-3F45-B51F-134C17465CFF}"/>
-    <hyperlink ref="C63" r:id="rId43" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875236" xr:uid="{2C57107A-08C4-4C48-82D7-68F8C7C7B6F1}"/>
-    <hyperlink ref="C64" r:id="rId44" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875237" xr:uid="{DFE7CBAB-F52E-CD40-A187-0DFB31BAA869}"/>
-    <hyperlink ref="C65" r:id="rId45" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875238" xr:uid="{941747B7-29C8-EA4A-B1EE-5AAF18E0462F}"/>
-    <hyperlink ref="C66" r:id="rId46" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875239" xr:uid="{E92E64FA-77B2-A74D-8DD5-119A7A7CC03A}"/>
+    <hyperlink ref="C61" r:id="rId36" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875234" xr:uid="{42583986-114A-B849-A09B-765CD164ECD5}"/>
+    <hyperlink ref="C62" r:id="rId37" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875235" xr:uid="{B8F458FC-06F3-3F45-B51F-134C17465CFF}"/>
+    <hyperlink ref="C63" r:id="rId38" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875236" xr:uid="{2C57107A-08C4-4C48-82D7-68F8C7C7B6F1}"/>
+    <hyperlink ref="C64" r:id="rId39" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875237" xr:uid="{DFE7CBAB-F52E-CD40-A187-0DFB31BAA869}"/>
+    <hyperlink ref="C65" r:id="rId40" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875238" xr:uid="{941747B7-29C8-EA4A-B1EE-5AAF18E0462F}"/>
+    <hyperlink ref="C66" r:id="rId41" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875239" xr:uid="{E92E64FA-77B2-A74D-8DD5-119A7A7CC03A}"/>
+    <hyperlink ref="C60" r:id="rId42" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875247" xr:uid="{DA83392A-8764-F04A-903A-3843597C8D6F}"/>
+    <hyperlink ref="C59" r:id="rId43" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875246" xr:uid="{5ACEDC3C-51A5-9542-B367-81A8B78AD4DB}"/>
+    <hyperlink ref="C58" r:id="rId44" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875245" xr:uid="{7DC345BB-EAD0-674D-AE93-AE773AB1AAB5}"/>
+    <hyperlink ref="C57" r:id="rId45" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875244" xr:uid="{BFFADB3C-42D3-5749-BAF4-59204E98202F}"/>
+    <hyperlink ref="C56" r:id="rId46" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR14875243" xr:uid="{5AD961BF-F1C2-364D-9AF8-0BB68D15CAE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZGA_datasets.xlsx
+++ b/ZGA_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Desktop/Rise_and_SINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C47684-F7BC-E745-B8A8-224A7A99E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096961B0-7699-9542-9D93-D865F5AFA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{06094D96-EA32-3C44-A5E3-5F118A5E0F5F}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,7 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1321,10 +1320,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1358,13 +1357,13 @@
       <c r="A14" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1375,13 +1374,13 @@
       <c r="A15" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -1392,13 +1391,13 @@
       <c r="A16" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -1409,13 +1408,13 @@
       <c r="A17" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -1426,13 +1425,13 @@
       <c r="A18" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -1443,13 +1442,13 @@
       <c r="A19" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -1494,13 +1493,13 @@
       <c r="A22" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -1511,13 +1510,13 @@
       <c r="A23" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -1562,13 +1561,13 @@
       <c r="A26" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -1579,13 +1578,13 @@
       <c r="A27" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -1630,13 +1629,13 @@
       <c r="A30" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -1647,13 +1646,13 @@
       <c r="A31" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" t="s">
         <v>98</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -1699,13 +1698,13 @@
       <c r="A34" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -1716,13 +1715,13 @@
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="15" t="s">
@@ -1767,13 +1766,13 @@
       <c r="A38" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -1784,13 +1783,13 @@
       <c r="A39" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="15" t="s">
@@ -1801,13 +1800,13 @@
       <c r="A40" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -1818,13 +1817,13 @@
       <c r="A41" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="15" t="s">
@@ -1835,13 +1834,13 @@
       <c r="A42" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -1852,13 +1851,13 @@
       <c r="A43" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" t="s">
         <v>98</v>
       </c>
       <c r="E43" s="15" t="s">
@@ -1869,13 +1868,13 @@
       <c r="A44" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" t="s">
         <v>98</v>
       </c>
       <c r="E44" s="15" t="s">
@@ -1886,13 +1885,13 @@
       <c r="A45" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" t="s">
         <v>98</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -1903,13 +1902,13 @@
       <c r="A46" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" t="s">
         <v>98</v>
       </c>
       <c r="E46" s="15" t="s">
@@ -1920,13 +1919,13 @@
       <c r="A47" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" t="s">
         <v>56</v>
       </c>
       <c r="E47" s="15" t="s">
@@ -1937,13 +1936,13 @@
       <c r="A48" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="15" t="s">
@@ -1954,13 +1953,13 @@
       <c r="A49" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" t="s">
         <v>56</v>
       </c>
       <c r="E49" s="15" t="s">
@@ -2005,13 +2004,13 @@
       <c r="A52" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" t="s">
         <v>56</v>
       </c>
       <c r="E52" s="15" t="s">
@@ -2022,13 +2021,13 @@
       <c r="A53" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" t="s">
         <v>98</v>
       </c>
       <c r="E53" s="15" t="s">
@@ -2039,13 +2038,13 @@
       <c r="A54" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" t="s">
         <v>98</v>
       </c>
       <c r="E54" s="15" t="s">
@@ -2090,13 +2089,13 @@
       <c r="A57" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" t="s">
         <v>56</v>
       </c>
       <c r="E57" s="15" t="s">
@@ -2107,13 +2106,13 @@
       <c r="A58" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" t="s">
         <v>56</v>
       </c>
       <c r="E58" s="15" t="s">
@@ -2124,13 +2123,13 @@
       <c r="A59" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="15" t="s">
@@ -2175,13 +2174,13 @@
       <c r="A62" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -2192,13 +2191,13 @@
       <c r="A63" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="E63" s="15" t="s">
@@ -2209,13 +2208,13 @@
       <c r="A64" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" t="s">
         <v>98</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -2226,13 +2225,13 @@
       <c r="A65" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" t="s">
         <v>98</v>
       </c>
       <c r="E65" s="15" t="s">

--- a/ZGA_datasets.xlsx
+++ b/ZGA_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Desktop/Rise_and_SINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096961B0-7699-9542-9D93-D865F5AFA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F4875B-5DC6-DB43-9A71-05130CE3C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{06094D96-EA32-3C44-A5E3-5F118A5E0F5F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="165">
   <si>
     <t>1st author</t>
   </si>
@@ -521,13 +521,22 @@
   </si>
   <si>
     <t>Mouse strain</t>
+  </si>
+  <si>
+    <t>Reads</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Paired</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,6 +557,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -576,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -705,11 +720,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,9 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -753,6 +776,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3B689A-1DCB-9E4A-8241-A2C6CAADCDFA}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,942 +1347,1108 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="19" t="s">
         <v>161</v>
       </c>
+      <c r="F12" s="20" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="F13" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F14" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F15" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F16" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F17" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F18" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F19" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>132</v>
       </c>
+      <c r="F20" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>111</v>
       </c>
+      <c r="F21" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="21" t="s">
         <v>111</v>
       </c>
+      <c r="F22" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>111</v>
       </c>
+      <c r="F23" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>111</v>
       </c>
+      <c r="F24" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="F25" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F26" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>132</v>
       </c>
+      <c r="F27" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="18" t="s">
+      <c r="D28" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>132</v>
       </c>
+      <c r="F28" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="F29" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="21" t="s">
         <v>122</v>
       </c>
+      <c r="F30" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>122</v>
       </c>
+      <c r="F31" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="18" t="s">
+      <c r="D32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="F32" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="F33" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="21" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="F34" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="F35" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="F36" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="F37" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="F38" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="F39" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="F40" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="F41" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="F42" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="F43" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="F44" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="F45" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="F46" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="F47" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="F48" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="F49" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="F50" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+      <c r="F51" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
+      <c r="F52" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="D53" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+      <c r="F53" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="15" t="s">
+      <c r="D54" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="F54" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="18" t="s">
+      <c r="D55" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="F55" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+      <c r="F56" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="F57" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+      <c r="F58" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="15" t="s">
+      <c r="D59" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="F59" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="18" t="s">
+      <c r="D60" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="F60" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+      <c r="F61" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="F62" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="F63" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="15" t="s">
+      <c r="D64" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="F64" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D65" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="15" t="s">
+      <c r="D65" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+      <c r="F65" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="18" t="s">
+      <c r="D66" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>160</v>
       </c>
+      <c r="F66" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR1840514" xr:uid="{1B9B5326-852D-8948-BBA8-EA38FAEAFDE5}"/>
     <hyperlink ref="C22" r:id="rId2" display="https://trace.ncbi.nlm.nih.gov/Traces/sra?run=SRR1840515" xr:uid="{91296E12-57C7-254E-BFF3-B2180D41B891}"/>
